--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-findings.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-findings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Observation Common Profile</t>
+    <t>JP Core Observation Radiology Findings Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはObservationリソースに対して、データを送受信するための共通の制約と拡張を定めたものである。</t>
+    <t>このプロファイルはDiagnosticReport_Radiologyリソースに関連する画像診断報告書の「所見」データを送受信するための共通の制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
